--- a/biology/Écologie/Métox_(indice)/Métox_(indice).xlsx
+++ b/biology/Écologie/Métox_(indice)/Métox_(indice).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tox_(indice)</t>
+          <t>Métox_(indice)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le métox (abréviation de métaux toxiques) est un indice quantifiant certaines pollutions toxiques des eaux douces, saumâtres, salées, superficielles ou souterraines.
 C'est l'indice officiel, développé par les Agences de l'eau et utilisé conformément à l'article R. 213-48-3 du code de l'environnement pour calculer les redevances que certains pollueurs (généralement industriels) doivent verser aux agences de bassin (ces écotaxes étant utilisées pour financer les Agences et lutter contre la pollution des eaux, par grand bassin). 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9tox_(indice)</t>
+          <t>Métox_(indice)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le métox n'est pas un indicateur global de pollution, ni totalement descriptif.
 Il considère et additionne individuellement des valeurs estimées pour huit polluants majeurs et non biodégradables que sont : l’arsenic et sept métaux lourds: mercure, cadmium, plomb, nickel, cuivre, chrome et zinc.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9tox_(indice)</t>
+          <t>Métox_(indice)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Limites de ce mode de calcul</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Métox n'intègre pas tous les polluants (il peut sous-estimer gravement la toxicité d'un rejet), mais il permet une certaine comparaison de rejets différents contenant plusieurs des polluants cités ci-dessus. Pour les raisons suivantes, il ne permet aucune interprétation écotoxicologique vraie des résultats :
 il ne prend pas en compte d'éventuelles synergies et/ou antagonismes entre polluants ou entre polluants et d'autres substances.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9tox_(indice)</t>
+          <t>Métox_(indice)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,13 +605,15 @@
           <t>Autres indicateurs ou indices proches[1]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Existent aussi :
-L’Indicateur de Pollution Métallique (MPI), mis en place dans le cadre du PIREN-Seine[2] en référence à cinq métaux : Cd, Cu, Pb, Zn et Hg
-L’indice de pollution polymétallique de l’Agence de l’Eau Seine-Normandie (AESN) se calcule en deux temps[3],[4], aussi nommé  « Metal Concentration Factors (CF ou FC) » dans la littérature scientifique (Ruiz-Fernàndez et al., 2003).
-L'indice Geoaccumulation index, créé par Müller[5] (1979) pour quantifier l'accumulation de métaux dans des sédiments pollués.  Il est noté Igeo[6],[7]
-l'indice Sediment Pollution Index (SPI), basé sur Cr, Zn, Ni, Cu, Pb et Cd (avec un facteur de pondération w)[5],[6].
+L’Indicateur de Pollution Métallique (MPI), mis en place dans le cadre du PIREN-Seine en référence à cinq métaux : Cd, Cu, Pb, Zn et Hg
+L’indice de pollution polymétallique de l’Agence de l’Eau Seine-Normandie (AESN) se calcule en deux temps aussi nommé  « Metal Concentration Factors (CF ou FC) » dans la littérature scientifique (Ruiz-Fernàndez et al., 2003).
+L'indice Geoaccumulation index, créé par Müller (1979) pour quantifier l'accumulation de métaux dans des sédiments pollués.  Il est noté Igeo,
+l'indice Sediment Pollution Index (SPI), basé sur Cr, Zn, Ni, Cu, Pb et Cd (avec un facteur de pondération w),.
 Avec des approches différentes, plusieurs pays ont aussi créé des indicateurs de contamination de cours d’eau pour différents polluants (ou des "niveaux guides" (sediments guidelines) pour les sédiments. Certains de ces seuils ou indices intègrent des critères d'acceptabilité sociale ou de faisabilité économique (Meybeck et al., 2003).
 En complément des tests de toxicité chronique ou de Toxicité aiguë peuvent être faits, et l'évaluation environnementale d'une pollution se base au moins aussi sur les paramètres suivants :
 Matière en suspension (MES) / turbidité
@@ -608,7 +626,7 @@
 Carbone organique total
 Pesticides
 Radioactivité
-et de plus en plus résidus de médicaments[8], perturbateurs endocriniens</t>
+et de plus en plus résidus de médicaments, perturbateurs endocriniens</t>
         </is>
       </c>
     </row>
